--- a/data/mechanic_skills_dataset.xlsx
+++ b/data/mechanic_skills_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ohi-my.sharepoint.com/personal/eduardo_sulz_ohi_pt/Documents/Documents/Projects/Git Pessoal/mechanics-roster-optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{89907E0D-434B-4F03-9CF2-45819C011F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{871B8838-EC6B-47AC-80BE-64BB3645244C}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{89907E0D-434B-4F03-9CF2-45819C011F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAC74C2B-CB70-40E6-A036-4156A79D1D25}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{539CABD9-6DE9-4789-A90D-31F2770C326A}"/>
   </bookViews>
@@ -471,13 +471,30 @@
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
